--- a/biology/Botanique/Calotropis/Calotropis.xlsx
+++ b/biology/Botanique/Calotropis/Calotropis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Calotropis est un genre de plantes à fleurs de la famille des  Apocynaceae[1]. Elles sont communément appelées asclépiades en raison de la sève qu'elles produisent. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calotropis est un genre de plantes à fleurs de la famille des  Apocynaceae. Elles sont communément appelées asclépiades en raison de la sève qu'elles produisent. 
 Toutes les espèces de Calotropis sont considérées comme des adventices dans certaines régions du monde. Les fleurs très odorantes sont souvent utilisées dans la fabrication de bouquets floraux dans certaines régions d'Asie du Sud-Est.
 Les diverses espèces de Calotropis prospèrent généralement dans des terres agricoles abandonnées, les bovins se tenant à distance de ces plantes en raison de leur goût désagréable dû à la présence de glycoside cardiotonique dans leur sève.
 </t>
@@ -515,12 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Étymologie
-Le nom vient du grec καλός / kalós, beau, et τροπις / tropis,quille, carène, en référence à la forme de la fleur en forme de quille.
-Noms vernaculaires
-Les fibres de ces plantes sont appelées « madar », « mader » ou « mudar ».
-La plante est connue sous le nom de aak en médecine Ayurveda. 
-À fortes doses la plante est appelée aussi Arka[2].
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du grec καλός / kalós, beau, et τροπις / tropis,quille, carène, en référence à la forme de la fleur en forme de quille.
 </t>
         </is>
       </c>
@@ -546,13 +559,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Classification</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">En classification classique de Cronquist (1981)[3], ce genre était placé dans la famille des Asclepiadaceae.  
-La classification phylogénétique le situe dans les Apocynaceae.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fibres de ces plantes sont appelées « madar », « mader » ou « mudar ».
+La plante est connue sous le nom de aak en médecine Ayurveda. 
+À fortes doses la plante est appelée aussi Arka.
 </t>
         </is>
       </c>
@@ -578,10 +598,46 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification classique de Cronquist (1981), ce genre était placé dans la famille des Asclepiadaceae.  
+La classification phylogénétique le situe dans les Apocynaceae.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Calotropis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Calotropis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Propriétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'exsudation laiteuse de la plante est un poison corrosif.
 Le latex est réputé avoir, sur le corps humain, les effets du mercure (d'où son appellation de mercure végétal) et serait utilisé à la place du mercure dans les aphrodisiaques[réf. nécessaire]. Ses feuilles sont diversement utilisées, notamment frits dans l'huile à des fins médicinales.
@@ -592,38 +648,6 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Calotropis</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Calotropis</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Utilisation</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plante est connue sous le nom de aak en médecine Ayurveda.  et a été utilisé dans les cas de maladies cutanées, les vers intestinaux, la toux, l'ascite, l'asthme, la bronchite, la dyspepsie, la paralysie, les gonflements, les fièvres intermittentes, l'anorexie, les inflammations et des tumeurs.
-L'Arka[2] est connu pour agir comme purgatif et vomitif[4],[5].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
@@ -645,14 +669,16 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Liste des espèces</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life
-Calotropis gigantea[6],[7] (L.) Ait. f. : Arka (mot sanskrit), Surya haya (ressemble au soleil), Bhaskaram (la force du soleil)
-Calotropis procera (Ait.) Ait. f. : pommier de Sodome</t>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante est connue sous le nom de aak en médecine Ayurveda.  et a été utilisé dans les cas de maladies cutanées, les vers intestinaux, la toux, l'ascite, l'asthme, la bronchite, la dyspepsie, la paralysie, les gonflements, les fièvres intermittentes, l'anorexie, les inflammations et des tumeurs.
+L'Arka est connu pour agir comme purgatif et vomitif,.
+</t>
         </is>
       </c>
     </row>
@@ -677,10 +703,46 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life
+Calotropis gigantea, (L.) Ait. f. : Arka (mot sanskrit), Surya haya (ressemble au soleil), Bhaskaram (la force du soleil)
+Calotropis procera (Ait.) Ait. f. : pommier de Sodome</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Calotropis</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Calotropis</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Illustrations</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Fruits de Calotropis procera.
